--- a/Code/Results/Cases/Case_8_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_41/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.00352980083415</v>
+        <v>21.09134462821283</v>
       </c>
       <c r="C2">
-        <v>13.22157626578462</v>
+        <v>13.69366038145461</v>
       </c>
       <c r="D2">
-        <v>4.828683886467948</v>
+        <v>5.0948372386968</v>
       </c>
       <c r="E2">
-        <v>7.558354449993858</v>
+        <v>7.776087567225273</v>
       </c>
       <c r="F2">
-        <v>22.82217739948187</v>
+        <v>21.67688943345447</v>
       </c>
       <c r="G2">
-        <v>2.109903282886299</v>
+        <v>4.965808917193327</v>
       </c>
       <c r="H2">
-        <v>2.94598432215688</v>
+        <v>2.656534925141818</v>
       </c>
       <c r="I2">
-        <v>3.500701475993873</v>
+        <v>3.185620349038902</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.93636692457421</v>
+        <v>14.95801234819009</v>
       </c>
       <c r="L2">
-        <v>6.170594920399731</v>
+        <v>12.2042973396626</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.886815775127049</v>
       </c>
       <c r="N2">
-        <v>6.98803624788999</v>
+        <v>6.220538611556921</v>
       </c>
       <c r="O2">
-        <v>13.11781599531837</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.193080193388235</v>
       </c>
       <c r="Q2">
-        <v>17.13933510173447</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>13.13209350569642</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>16.1199225995469</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.63724729310873</v>
+        <v>19.7143348978365</v>
       </c>
       <c r="C3">
-        <v>12.52921644990428</v>
+        <v>12.93865403947358</v>
       </c>
       <c r="D3">
-        <v>4.741138569661304</v>
+        <v>5.028140937951468</v>
       </c>
       <c r="E3">
-        <v>7.511917645828682</v>
+        <v>7.759703272023831</v>
       </c>
       <c r="F3">
-        <v>22.65809521864784</v>
+        <v>21.50956234379528</v>
       </c>
       <c r="G3">
-        <v>2.114021048981479</v>
+        <v>5.500280094983435</v>
       </c>
       <c r="H3">
-        <v>3.156557582905572</v>
+        <v>2.839757160500113</v>
       </c>
       <c r="I3">
-        <v>3.669892524533839</v>
+        <v>3.324650944695528</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.11931854649588</v>
+        <v>15.13299984208584</v>
       </c>
       <c r="L3">
-        <v>6.135523154232496</v>
+        <v>12.38162030417229</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.00844436984837</v>
       </c>
       <c r="N3">
-        <v>6.806327003899653</v>
+        <v>6.192208911150194</v>
       </c>
       <c r="O3">
-        <v>12.46601751224696</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.009296336370909</v>
       </c>
       <c r="Q3">
-        <v>17.1105433702838</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>12.45902282018668</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>16.07458885050401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.74778939424176</v>
+        <v>18.8165619179873</v>
       </c>
       <c r="C4">
-        <v>12.0865715155747</v>
+        <v>12.45633868371763</v>
       </c>
       <c r="D4">
-        <v>4.687308081273116</v>
+        <v>4.988085859955757</v>
       </c>
       <c r="E4">
-        <v>7.482437640830736</v>
+        <v>7.749302212597225</v>
       </c>
       <c r="F4">
-        <v>22.56642015827671</v>
+        <v>21.41211141519612</v>
       </c>
       <c r="G4">
-        <v>2.116636884885119</v>
+        <v>5.840015669925781</v>
       </c>
       <c r="H4">
-        <v>3.290402961023216</v>
+        <v>2.9562907283461</v>
       </c>
       <c r="I4">
-        <v>3.778068578608742</v>
+        <v>3.413936275272441</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.2367032803318</v>
+        <v>15.24351004347036</v>
       </c>
       <c r="L4">
-        <v>6.113154841635342</v>
+        <v>12.49325604593126</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.09965716574859</v>
       </c>
       <c r="N4">
-        <v>6.693082903138582</v>
+        <v>6.174258260649351</v>
       </c>
       <c r="O4">
-        <v>12.04882683829785</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.895132507734076</v>
       </c>
       <c r="Q4">
-        <v>17.10047987217591</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.02722124313467</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>16.05106110450694</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.37230940332802</v>
+        <v>18.43708851447564</v>
       </c>
       <c r="C5">
-        <v>11.91092697379003</v>
+        <v>12.26410931154325</v>
       </c>
       <c r="D5">
-        <v>4.66600637865318</v>
+        <v>4.972619220749973</v>
       </c>
       <c r="E5">
-        <v>7.469596892204902</v>
+        <v>7.74447476903041</v>
       </c>
       <c r="F5">
-        <v>22.52248698239562</v>
+        <v>21.36497759349902</v>
       </c>
       <c r="G5">
-        <v>2.117731229407263</v>
+        <v>5.982218918115399</v>
       </c>
       <c r="H5">
-        <v>3.346396107421946</v>
+        <v>3.005066652957456</v>
       </c>
       <c r="I5">
-        <v>3.825738072152096</v>
+        <v>3.454312828548733</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.28033523464944</v>
+        <v>15.28409482184876</v>
       </c>
       <c r="L5">
-        <v>6.103690010303406</v>
+        <v>12.53429503668838</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.13822769472502</v>
       </c>
       <c r="N5">
-        <v>6.648069105681865</v>
+        <v>6.166705879806018</v>
       </c>
       <c r="O5">
-        <v>11.87597500193851</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.849769188505412</v>
       </c>
       <c r="Q5">
-        <v>17.09164459269297</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.84797961638671</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>16.03595664202334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.30882687084948</v>
+        <v>18.37274030017975</v>
       </c>
       <c r="C6">
-        <v>11.89258594258692</v>
+        <v>12.24279409378523</v>
       </c>
       <c r="D6">
-        <v>4.663250898434873</v>
+        <v>4.970822052614248</v>
       </c>
       <c r="E6">
-        <v>7.46674482140487</v>
+        <v>7.743058900722148</v>
       </c>
       <c r="F6">
-        <v>22.50453581532247</v>
+        <v>21.34655106071548</v>
       </c>
       <c r="G6">
-        <v>2.117921634498364</v>
+        <v>6.006996467250596</v>
       </c>
       <c r="H6">
-        <v>3.356115830067569</v>
+        <v>3.013545208255718</v>
       </c>
       <c r="I6">
-        <v>3.836917815386026</v>
+        <v>3.464940643712982</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.28100863642952</v>
+        <v>15.28452639147012</v>
       </c>
       <c r="L6">
-        <v>6.10194097452626</v>
+        <v>12.53487232515023</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.14162484670276</v>
       </c>
       <c r="N6">
-        <v>6.642424172243365</v>
+        <v>6.165329195551848</v>
       </c>
       <c r="O6">
-        <v>11.84858758544942</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.843986000387361</v>
       </c>
       <c r="Q6">
-        <v>17.08222723725205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.8194552726665</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>16.02548658458075</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.74178642312504</v>
+        <v>18.80965485433867</v>
       </c>
       <c r="C7">
-        <v>12.11396513524915</v>
+        <v>12.46346362235066</v>
       </c>
       <c r="D7">
-        <v>4.689141361084043</v>
+        <v>4.99900828108154</v>
       </c>
       <c r="E7">
-        <v>7.480369683486823</v>
+        <v>7.747418628941151</v>
       </c>
       <c r="F7">
-        <v>22.53645672129275</v>
+        <v>21.33402871822374</v>
       </c>
       <c r="G7">
-        <v>2.116671177867158</v>
+        <v>5.895976633974582</v>
       </c>
       <c r="H7">
-        <v>3.292092905831032</v>
+        <v>2.959269283192461</v>
       </c>
       <c r="I7">
-        <v>3.787169818225838</v>
+        <v>3.426032195278736</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.21913883340963</v>
+        <v>15.20573252311561</v>
       </c>
       <c r="L7">
-        <v>6.112604102809123</v>
+        <v>12.45681480625003</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.0794921768795</v>
       </c>
       <c r="N7">
-        <v>6.697487115623489</v>
+        <v>6.172991943366918</v>
       </c>
       <c r="O7">
-        <v>12.05067807637242</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.898686587144158</v>
       </c>
       <c r="Q7">
-        <v>17.07838698620512</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.02884941435532</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>15.98989579052958</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.54165265024416</v>
+        <v>20.62438141848149</v>
       </c>
       <c r="C8">
-        <v>13.02365044229371</v>
+        <v>13.41280324163336</v>
       </c>
       <c r="D8">
-        <v>4.801269653682215</v>
+        <v>5.104204862152174</v>
       </c>
       <c r="E8">
-        <v>7.540154178495402</v>
+        <v>7.768000334644388</v>
       </c>
       <c r="F8">
-        <v>22.72541229458603</v>
+        <v>21.4229697033721</v>
       </c>
       <c r="G8">
-        <v>2.11132940582625</v>
+        <v>5.423326341690122</v>
       </c>
       <c r="H8">
-        <v>3.018810554574356</v>
+        <v>2.724520379201846</v>
       </c>
       <c r="I8">
-        <v>3.568939333022542</v>
+        <v>3.249965107597831</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.9744026023725</v>
+        <v>14.92696766618279</v>
       </c>
       <c r="L8">
-        <v>6.158220531676061</v>
+        <v>12.18449389056818</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.867772852547835</v>
       </c>
       <c r="N8">
-        <v>6.93218075012442</v>
+        <v>6.207952094578291</v>
       </c>
       <c r="O8">
-        <v>12.90181243022913</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.134182233050272</v>
       </c>
       <c r="Q8">
-        <v>17.09899203974492</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.90874560832027</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>15.94729289853952</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.70286044489903</v>
+        <v>23.77369591087131</v>
       </c>
       <c r="C9">
-        <v>14.61638452233191</v>
+        <v>15.14425745052127</v>
       </c>
       <c r="D9">
-        <v>5.016172499161266</v>
+        <v>5.279735059786852</v>
       </c>
       <c r="E9">
-        <v>7.65319738401846</v>
+        <v>7.80905177182655</v>
       </c>
       <c r="F9">
-        <v>23.22075896499633</v>
+        <v>21.8675746378029</v>
       </c>
       <c r="G9">
-        <v>2.101500039308486</v>
+        <v>4.265153030291489</v>
       </c>
       <c r="H9">
-        <v>2.516713970455768</v>
+        <v>2.288931712720771</v>
       </c>
       <c r="I9">
-        <v>3.16066102985932</v>
+        <v>2.913948995256494</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.56848814506361</v>
+        <v>14.51087420437648</v>
       </c>
       <c r="L9">
-        <v>6.241787695621521</v>
+        <v>11.77203753865581</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>9.647871995781552</v>
       </c>
       <c r="N9">
-        <v>7.368779890754065</v>
+        <v>6.275662065455986</v>
       </c>
       <c r="O9">
-        <v>14.42399447330722</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.577475501970134</v>
       </c>
       <c r="Q9">
-        <v>17.2411754538306</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>14.47546622875685</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>16.08000906988219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.79694608608992</v>
+        <v>25.84641188746511</v>
       </c>
       <c r="C10">
-        <v>15.75849540743568</v>
+        <v>16.27691851437132</v>
       </c>
       <c r="D10">
-        <v>5.150649508430591</v>
+        <v>5.43986910589472</v>
       </c>
       <c r="E10">
-        <v>7.71221500138329</v>
+        <v>7.820848105884188</v>
       </c>
       <c r="F10">
-        <v>23.46474945948875</v>
+        <v>21.81029398509586</v>
       </c>
       <c r="G10">
-        <v>2.094778189520544</v>
+        <v>4.804685116631783</v>
       </c>
       <c r="H10">
-        <v>2.195521882723821</v>
+        <v>2.021426873236457</v>
       </c>
       <c r="I10">
-        <v>2.890374905403096</v>
+        <v>2.701913994100982</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.21576563443377</v>
+        <v>14.04103642815031</v>
       </c>
       <c r="L10">
-        <v>6.305923310971822</v>
+        <v>11.35804315012684</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>9.421007142720045</v>
       </c>
       <c r="N10">
-        <v>7.617681251553419</v>
+        <v>6.328208054565019</v>
       </c>
       <c r="O10">
-        <v>15.41059667607287</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.826565149560703</v>
       </c>
       <c r="Q10">
-        <v>17.27794933637284</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>15.48480346729306</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>15.8903213600735</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.7792495052383</v>
+        <v>26.82188891083351</v>
       </c>
       <c r="C11">
-        <v>16.72478569283057</v>
+        <v>16.98562399073931</v>
       </c>
       <c r="D11">
-        <v>5.019497052510745</v>
+        <v>5.397292381286617</v>
       </c>
       <c r="E11">
-        <v>7.659143175168652</v>
+        <v>7.756563715157149</v>
       </c>
       <c r="F11">
-        <v>22.22879139162826</v>
+        <v>20.14310960974011</v>
       </c>
       <c r="G11">
-        <v>2.09263839827255</v>
+        <v>8.31307797787184</v>
       </c>
       <c r="H11">
-        <v>3.042298987368443</v>
+        <v>2.939295028960001</v>
       </c>
       <c r="I11">
-        <v>2.824125856018262</v>
+        <v>2.667539408898675</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.42381753829443</v>
+        <v>13.18073053957902</v>
       </c>
       <c r="L11">
-        <v>6.438961381709346</v>
+        <v>10.76228286131649</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.745666366910955</v>
       </c>
       <c r="N11">
-        <v>7.202513244037916</v>
+        <v>6.47144207888423</v>
       </c>
       <c r="O11">
-        <v>15.47829375046386</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.383978330011498</v>
       </c>
       <c r="Q11">
-        <v>16.41748541526333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>15.54309109530873</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>14.68430452834616</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.18680263860779</v>
+        <v>27.22931060522728</v>
       </c>
       <c r="C12">
-        <v>17.27963577119782</v>
+        <v>17.37621267324661</v>
       </c>
       <c r="D12">
-        <v>4.878460161877766</v>
+        <v>5.289315186700128</v>
       </c>
       <c r="E12">
-        <v>7.723476319646318</v>
+        <v>7.805438017343282</v>
       </c>
       <c r="F12">
-        <v>21.16871306450146</v>
+        <v>18.96162595613092</v>
       </c>
       <c r="G12">
-        <v>2.092118278512464</v>
+        <v>10.12609107689762</v>
       </c>
       <c r="H12">
-        <v>4.336768990136151</v>
+        <v>4.268534642967575</v>
       </c>
       <c r="I12">
-        <v>2.804416013149315</v>
+        <v>2.655764007349113</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.89077474399116</v>
+        <v>12.71194083999272</v>
       </c>
       <c r="L12">
-        <v>6.598165423148017</v>
+        <v>10.47302241884124</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>8.332744451181179</v>
       </c>
       <c r="N12">
-        <v>6.803291369985602</v>
+        <v>6.64061670320112</v>
       </c>
       <c r="O12">
-        <v>15.32051337974068</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.964120426056909</v>
       </c>
       <c r="Q12">
-        <v>15.71169691820791</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>15.37379094435502</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>13.88468171242193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.189246239613</v>
+        <v>27.23695973773156</v>
       </c>
       <c r="C13">
-        <v>17.60261669836733</v>
+        <v>17.63231408262859</v>
       </c>
       <c r="D13">
-        <v>4.723324576592844</v>
+        <v>5.107773661484128</v>
       </c>
       <c r="E13">
-        <v>7.872163479977368</v>
+        <v>7.948563735829175</v>
       </c>
       <c r="F13">
-        <v>20.13307853726864</v>
+        <v>18.12416248528132</v>
       </c>
       <c r="G13">
-        <v>2.092845705392699</v>
+        <v>9.741813156358221</v>
       </c>
       <c r="H13">
-        <v>5.719811082639781</v>
+        <v>5.664381386312561</v>
       </c>
       <c r="I13">
-        <v>2.834154670145706</v>
+        <v>2.677665252125002</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.50518278786018</v>
+        <v>12.48982455114064</v>
       </c>
       <c r="L13">
-        <v>6.779822099112363</v>
+        <v>10.3475766841174</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>8.106900186334599</v>
       </c>
       <c r="N13">
-        <v>6.397557385733727</v>
+        <v>6.830460781178711</v>
       </c>
       <c r="O13">
-        <v>14.98065627081951</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.542714203895633</v>
       </c>
       <c r="Q13">
-        <v>15.04895036699512</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>15.02008978768111</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>13.38251401308502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.00765917218305</v>
+        <v>27.06132601008127</v>
       </c>
       <c r="C14">
-        <v>17.73589917309644</v>
+        <v>17.76045105630626</v>
       </c>
       <c r="D14">
-        <v>4.609273319538035</v>
+        <v>4.952853556071228</v>
       </c>
       <c r="E14">
-        <v>8.024734138492096</v>
+        <v>8.106661999574847</v>
       </c>
       <c r="F14">
-        <v>19.41809755062825</v>
+        <v>17.67358633773301</v>
       </c>
       <c r="G14">
-        <v>2.093920872342099</v>
+        <v>8.516359281523147</v>
       </c>
       <c r="H14">
-        <v>6.712417201215172</v>
+        <v>6.66044654784039</v>
       </c>
       <c r="I14">
-        <v>2.880216961283445</v>
+        <v>2.712029633618144</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.31022596780698</v>
+        <v>12.42879115327139</v>
       </c>
       <c r="L14">
-        <v>6.921486584018798</v>
+        <v>10.31383658051559</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>8.028532041307921</v>
       </c>
       <c r="N14">
-        <v>6.115375354828529</v>
+        <v>6.975448413677408</v>
       </c>
       <c r="O14">
-        <v>14.65674498894096</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>6.251972945578922</v>
       </c>
       <c r="Q14">
-        <v>14.60441076002964</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>14.68500083142404</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>13.14798987981299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.87544962139673</v>
+        <v>26.93167032769085</v>
       </c>
       <c r="C15">
-        <v>17.72827256730288</v>
+        <v>17.76988064491533</v>
       </c>
       <c r="D15">
-        <v>4.57902490502563</v>
+        <v>4.903983637220682</v>
       </c>
       <c r="E15">
-        <v>8.063799335610785</v>
+        <v>8.152621152379186</v>
       </c>
       <c r="F15">
-        <v>19.24233667156658</v>
+        <v>17.61397757969763</v>
       </c>
       <c r="G15">
-        <v>2.094468881921397</v>
+        <v>7.822295332270854</v>
       </c>
       <c r="H15">
-        <v>6.945545700867465</v>
+        <v>6.892889346261477</v>
       </c>
       <c r="I15">
-        <v>2.906819765707604</v>
+        <v>2.733395242212914</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.28657833836391</v>
+        <v>12.44598248542327</v>
       </c>
       <c r="L15">
-        <v>6.95341619251478</v>
+        <v>10.32233707813674</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>8.037056771863694</v>
       </c>
       <c r="N15">
-        <v>6.04538798964704</v>
+        <v>7.007914637539801</v>
       </c>
       <c r="O15">
-        <v>14.54000001809308</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>6.180792405386075</v>
       </c>
       <c r="Q15">
-        <v>14.50001776401398</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>14.56479037103471</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>13.13493883416293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.02501904852748</v>
+        <v>26.0914258855262</v>
       </c>
       <c r="C16">
-        <v>17.23329048243886</v>
+        <v>17.43072923575416</v>
       </c>
       <c r="D16">
-        <v>4.551810617642651</v>
+        <v>4.80696313165601</v>
       </c>
       <c r="E16">
-        <v>7.999594766353897</v>
+        <v>8.13647101915137</v>
       </c>
       <c r="F16">
-        <v>19.32276588749448</v>
+        <v>18.12190754447441</v>
       </c>
       <c r="G16">
-        <v>2.09720770203611</v>
+        <v>4.852760200543204</v>
       </c>
       <c r="H16">
-        <v>6.76360198905708</v>
+        <v>6.696066670998199</v>
       </c>
       <c r="I16">
-        <v>3.021934021937934</v>
+        <v>2.818658227004697</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.51655899010489</v>
+        <v>12.75607850329637</v>
       </c>
       <c r="L16">
-        <v>6.883302918612532</v>
+        <v>10.49730384519793</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>8.294512959895712</v>
       </c>
       <c r="N16">
-        <v>6.015351685010615</v>
+        <v>6.939393900781865</v>
       </c>
       <c r="O16">
-        <v>14.18267446011778</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>6.158481046207751</v>
       </c>
       <c r="Q16">
-        <v>14.60497062650794</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>14.20091561052167</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>13.57300853986778</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.45832433290451</v>
+        <v>25.52912260828185</v>
       </c>
       <c r="C17">
-        <v>16.77171968567386</v>
+        <v>17.06810428858528</v>
       </c>
       <c r="D17">
-        <v>4.591968959948628</v>
+        <v>4.823489471731334</v>
       </c>
       <c r="E17">
-        <v>7.86051334268663</v>
+        <v>8.022458242030897</v>
       </c>
       <c r="F17">
-        <v>19.7625724308783</v>
+        <v>18.70588750972421</v>
       </c>
       <c r="G17">
-        <v>2.098743340672368</v>
+        <v>4.003516432155867</v>
       </c>
       <c r="H17">
-        <v>6.070122670854541</v>
+        <v>5.986121292720946</v>
       </c>
       <c r="I17">
-        <v>3.086510073778598</v>
+        <v>2.867645053700948</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.78848316311541</v>
+        <v>13.03244815925379</v>
       </c>
       <c r="L17">
-        <v>6.749987864444543</v>
+        <v>10.67280828781327</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>8.521233758228817</v>
       </c>
       <c r="N17">
-        <v>6.141826340308968</v>
+        <v>6.807290793204706</v>
       </c>
       <c r="O17">
-        <v>14.08420467173011</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>6.29462015105098</v>
       </c>
       <c r="Q17">
-        <v>14.91913145640268</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>14.10333686331491</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>13.99899312164345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.08544004353707</v>
+        <v>25.15648274839154</v>
       </c>
       <c r="C18">
-        <v>16.27272672366645</v>
+        <v>16.66269337220446</v>
       </c>
       <c r="D18">
-        <v>4.695033536139361</v>
+        <v>4.919741572686695</v>
       </c>
       <c r="E18">
-        <v>7.693186521948594</v>
+        <v>7.864145616734078</v>
       </c>
       <c r="F18">
-        <v>20.58721159541422</v>
+        <v>19.53794473010441</v>
       </c>
       <c r="G18">
-        <v>2.09934770354896</v>
+        <v>3.792558805861913</v>
       </c>
       <c r="H18">
-        <v>4.897524655881816</v>
+        <v>4.788925746930335</v>
       </c>
       <c r="I18">
-        <v>3.103053970260579</v>
+        <v>2.875931757164079</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.16182340493027</v>
+        <v>13.36349953099012</v>
       </c>
       <c r="L18">
-        <v>6.57035849295295</v>
+        <v>10.90168744285132</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>8.790143385518718</v>
       </c>
       <c r="N18">
-        <v>6.426497745610865</v>
+        <v>6.62672878832409</v>
       </c>
       <c r="O18">
-        <v>14.196329788482</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.593203551485524</v>
       </c>
       <c r="Q18">
-        <v>15.46814522661591</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>14.22393477546512</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>14.55409772452806</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.90056401811895</v>
+        <v>24.96870150730127</v>
       </c>
       <c r="C19">
-        <v>15.84078800878524</v>
+        <v>16.3234260946337</v>
       </c>
       <c r="D19">
-        <v>4.846844278076167</v>
+        <v>5.07219308626617</v>
       </c>
       <c r="E19">
-        <v>7.597832863486895</v>
+        <v>7.761615930266051</v>
       </c>
       <c r="F19">
-        <v>21.62692242850416</v>
+        <v>20.50837434349666</v>
       </c>
       <c r="G19">
-        <v>2.099122042294252</v>
+        <v>3.706438585439843</v>
       </c>
       <c r="H19">
-        <v>3.558831609189418</v>
+        <v>3.411401110341462</v>
       </c>
       <c r="I19">
-        <v>3.095842252110114</v>
+        <v>2.871101465185348</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.60213747472691</v>
+        <v>13.73014639541532</v>
       </c>
       <c r="L19">
-        <v>6.407630818114322</v>
+        <v>11.16493424347881</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>9.087743307758844</v>
       </c>
       <c r="N19">
-        <v>6.83946143826233</v>
+        <v>6.458076567336911</v>
       </c>
       <c r="O19">
-        <v>14.47072044268324</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.023377261908896</v>
       </c>
       <c r="Q19">
-        <v>16.14069059361131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>14.51214432971568</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>15.17411316378551</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.26079961023914</v>
+        <v>25.31714127909405</v>
       </c>
       <c r="C20">
-        <v>15.54350465927573</v>
+        <v>16.11990370701834</v>
       </c>
       <c r="D20">
-        <v>5.120511502592172</v>
+        <v>5.371444473546006</v>
       </c>
       <c r="E20">
-        <v>7.6910849676411</v>
+        <v>7.813192184651291</v>
       </c>
       <c r="F20">
-        <v>23.30462578707778</v>
+        <v>21.89502740769968</v>
       </c>
       <c r="G20">
-        <v>2.096572027383431</v>
+        <v>3.836389699465125</v>
       </c>
       <c r="H20">
-        <v>2.280371842165089</v>
+        <v>2.087709574727117</v>
       </c>
       <c r="I20">
-        <v>2.989697458951134</v>
+        <v>2.788611058720467</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.24735153607472</v>
+        <v>14.18083973130051</v>
       </c>
       <c r="L20">
-        <v>6.289056090011663</v>
+        <v>11.47579733192959</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>9.491566606610728</v>
       </c>
       <c r="N20">
-        <v>7.564037984759371</v>
+        <v>6.317178174049144</v>
       </c>
       <c r="O20">
-        <v>15.16587392877113</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.774163601078247</v>
       </c>
       <c r="Q20">
-        <v>17.19526792674908</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>15.23456063732088</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>16.00326513221441</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.77516868738559</v>
+        <v>26.80891066807458</v>
       </c>
       <c r="C21">
-        <v>16.29417907810469</v>
+        <v>16.59085363834267</v>
       </c>
       <c r="D21">
-        <v>5.256781235196812</v>
+        <v>5.699832495705595</v>
       </c>
       <c r="E21">
-        <v>7.76627996391563</v>
+        <v>7.852077269315641</v>
       </c>
       <c r="F21">
-        <v>23.76267749839065</v>
+        <v>21.25617209185546</v>
       </c>
       <c r="G21">
-        <v>2.091357233445624</v>
+        <v>9.87802213789511</v>
       </c>
       <c r="H21">
-        <v>1.999304713709007</v>
+        <v>1.866971364184145</v>
       </c>
       <c r="I21">
-        <v>2.776628059749568</v>
+        <v>2.637772967265475</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.11115341799705</v>
+        <v>13.57096230482208</v>
       </c>
       <c r="L21">
-        <v>6.327377947149572</v>
+        <v>11.00991495235887</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>9.10802140776469</v>
       </c>
       <c r="N21">
-        <v>7.845064121090406</v>
+        <v>6.33275509470135</v>
       </c>
       <c r="O21">
-        <v>15.9559767419357</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.049580617446608</v>
       </c>
       <c r="Q21">
-        <v>17.40561504557079</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>16.03993993139002</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>15.33110792858914</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.72690526079348</v>
+        <v>27.74672277068509</v>
       </c>
       <c r="C22">
-        <v>16.76458962352596</v>
+        <v>16.86385919560882</v>
       </c>
       <c r="D22">
-        <v>5.331223511202061</v>
+        <v>5.918959714209229</v>
       </c>
       <c r="E22">
-        <v>7.806994271951353</v>
+        <v>7.877317225311159</v>
       </c>
       <c r="F22">
-        <v>24.02753075323264</v>
+        <v>20.74982823598203</v>
       </c>
       <c r="G22">
-        <v>2.088046288210829</v>
+        <v>14.77603573408102</v>
       </c>
       <c r="H22">
-        <v>1.830767316397002</v>
+        <v>1.735838382207643</v>
       </c>
       <c r="I22">
-        <v>2.630617178552067</v>
+        <v>2.527545593749573</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.01460228076859</v>
+        <v>13.15017993989626</v>
       </c>
       <c r="L22">
-        <v>6.355290755774677</v>
+        <v>10.71791123896279</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>8.827360402841675</v>
       </c>
       <c r="N22">
-        <v>7.988377916485999</v>
+        <v>6.348245249189309</v>
       </c>
       <c r="O22">
-        <v>16.42912783067732</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.187752247250115</v>
       </c>
       <c r="Q22">
-        <v>17.52790946759395</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>16.51998936987709</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>14.83145367769232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.22426053806426</v>
+        <v>27.25196035485729</v>
       </c>
       <c r="C23">
-        <v>16.48778740872741</v>
+        <v>16.73099921159094</v>
       </c>
       <c r="D23">
-        <v>5.289293690522231</v>
+        <v>5.774544037685214</v>
       </c>
       <c r="E23">
-        <v>7.787143727222341</v>
+        <v>7.863536093419525</v>
       </c>
       <c r="F23">
-        <v>23.91728502011178</v>
+        <v>21.16454859167689</v>
       </c>
       <c r="G23">
-        <v>2.089790242438397</v>
+        <v>11.34596471185633</v>
       </c>
       <c r="H23">
-        <v>1.919602114068511</v>
+        <v>1.802849906519311</v>
       </c>
       <c r="I23">
-        <v>2.696318091463243</v>
+        <v>2.56990551847671</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.08699121436839</v>
+        <v>13.43703185525461</v>
       </c>
       <c r="L23">
-        <v>6.340595220414484</v>
+        <v>10.90938139778778</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>9.035621023641607</v>
       </c>
       <c r="N23">
-        <v>7.907026844569041</v>
+        <v>6.340905045684503</v>
       </c>
       <c r="O23">
-        <v>16.17459856314655</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.110676149200803</v>
       </c>
       <c r="Q23">
-        <v>17.48638966341472</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>16.26259099913369</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>15.21360416772582</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.22941562533497</v>
+        <v>25.28552269626185</v>
       </c>
       <c r="C24">
-        <v>15.44710541451598</v>
+        <v>16.03467773859419</v>
       </c>
       <c r="D24">
-        <v>5.132876454639404</v>
+        <v>5.38291756602141</v>
       </c>
       <c r="E24">
-        <v>7.708033563717455</v>
+        <v>7.827755760371777</v>
       </c>
       <c r="F24">
-        <v>23.46832393889632</v>
+        <v>22.0551505591452</v>
       </c>
       <c r="G24">
-        <v>2.096547798027217</v>
+        <v>3.797598298063583</v>
       </c>
       <c r="H24">
-        <v>2.263965007407649</v>
+        <v>2.070668819741062</v>
       </c>
       <c r="I24">
-        <v>2.971545784602258</v>
+        <v>2.766262843943291</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.33995327123985</v>
+        <v>14.26276402506099</v>
       </c>
       <c r="L24">
-        <v>6.283567579498378</v>
+        <v>11.53490036397347</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>9.55732335686549</v>
       </c>
       <c r="N24">
-        <v>7.60152098239342</v>
+        <v>6.309797836558192</v>
       </c>
       <c r="O24">
-        <v>15.18070112232598</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.813995822879876</v>
       </c>
       <c r="Q24">
-        <v>17.30862600665516</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>15.25090808905911</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>16.11394224629332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.88506956503874</v>
+        <v>22.96402617863535</v>
       </c>
       <c r="C25">
-        <v>14.24797571667458</v>
+        <v>14.76341382087843</v>
       </c>
       <c r="D25">
-        <v>4.961903721196473</v>
+        <v>5.222651625763898</v>
       </c>
       <c r="E25">
-        <v>7.620301524450617</v>
+        <v>7.795724372046145</v>
       </c>
       <c r="F25">
-        <v>23.02764771704862</v>
+        <v>21.75891314303826</v>
       </c>
       <c r="G25">
-        <v>2.104119337332085</v>
+        <v>4.391229301351486</v>
       </c>
       <c r="H25">
-        <v>2.650311229325685</v>
+        <v>2.402925303669593</v>
       </c>
       <c r="I25">
-        <v>3.283233717036435</v>
+        <v>3.018933896258401</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>15.64091321589949</v>
+        <v>14.6197303518884</v>
       </c>
       <c r="L25">
-        <v>6.219405453036178</v>
+        <v>11.88069986543436</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>9.691421567669364</v>
       </c>
       <c r="N25">
-        <v>7.260915004992631</v>
+        <v>6.258700273193408</v>
       </c>
       <c r="O25">
-        <v>14.0342365990189</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.468065504147452</v>
       </c>
       <c r="Q25">
-        <v>17.1568685489582</v>
+        <v>14.07482663056338</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>16.05620672043536</v>
       </c>
     </row>
   </sheetData>
